--- a/08_Management/Supervisor_Meeting-BCD1-0117_BCDCarpentryProject.xlsx
+++ b/08_Management/Supervisor_Meeting-BCD1-0117_BCDCarpentryProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="51">
   <si>
     <t>Date/Time</t>
   </si>
@@ -154,6 +154,25 @@
   <si>
     <t>1.Introduce the project's progress and probloms
 2.Team members planed to meet the next day to talk about some technique problems</t>
+  </si>
+  <si>
+    <t>2. Plan the test</t>
+  </si>
+  <si>
+    <t>1. Project team have finish the development</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discide when we will meet the client to get the test feedback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Sunil introduce the contents and process of project assessment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Sunil introduce how to write poster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,17 +237,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -238,28 +257,28 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,725 +597,877 @@
     <col min="2" max="2" width="57.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>42794.40625</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7">
         <v>42801.583333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2">
         <v>42807.458333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="7">
         <v>42808.416666666664</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2">
         <v>42810.416666666664</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="5">
+    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="7">
         <v>42815.416666666664</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="4" t="s">
+    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="2">
         <v>42821.416666666664</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="5">
+    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="7">
         <v>42822.416666666664</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+    <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="2">
         <v>42829.416666666664</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="5">
+    <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="7">
         <v>42836.416666666664</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="78" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="4" t="s">
+    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="4" t="s">
+    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B85" s="2">
         <v>42856.5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="5">
+    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="7">
         <v>42857.416666666664</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="4" t="s">
+    <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="6"/>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B101" s="2">
-        <v>42864.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="1" t="s">
+        <v>42864.416666666664</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="1" t="s">
+    <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="105" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+    <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="7">
+        <v>42871.416666666664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="6"/>
+      <c r="B113" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="6"/>
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="6"/>
+      <c r="B115" s="8"/>
+    </row>
+    <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="2">
+        <v>42878.416666666664</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="124" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="7">
+        <v>42885.416666666664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="6"/>
+      <c r="B129" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="6"/>
+      <c r="B130" s="8"/>
+    </row>
+    <row r="131" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="6"/>
+      <c r="B131" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
